--- a/Code/Results/Cases/Case_6_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11405198385064</v>
+        <v>21.02430817274765</v>
       </c>
       <c r="C2">
-        <v>14.75878428376275</v>
+        <v>14.64749342899964</v>
       </c>
       <c r="D2">
-        <v>3.944259644861508</v>
+        <v>4.034455624799785</v>
       </c>
       <c r="E2">
-        <v>11.3996151732986</v>
+        <v>11.36285351902625</v>
       </c>
       <c r="F2">
-        <v>35.94810240859378</v>
+        <v>17.93044899956847</v>
       </c>
       <c r="G2">
-        <v>2.055477864966493</v>
+        <v>2.058969315572304</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.21682218758203</v>
+        <v>18.15659081240609</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.14650113881191</v>
+        <v>13.7266147485884</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.6252553574474</v>
+        <v>19.66290506532368</v>
       </c>
       <c r="C3">
-        <v>13.78000718626259</v>
+        <v>13.82824348609839</v>
       </c>
       <c r="D3">
-        <v>4.001456173139378</v>
+        <v>3.915470705451204</v>
       </c>
       <c r="E3">
-        <v>10.76297748501588</v>
+        <v>10.78000713186082</v>
       </c>
       <c r="F3">
-        <v>34.04887499470872</v>
+        <v>17.33641345980246</v>
       </c>
       <c r="G3">
-        <v>2.066647420092546</v>
+        <v>2.065165303285088</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.95529399449519</v>
+        <v>16.98031329241018</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.81500823272844</v>
+        <v>13.52573650964506</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.66427375123521</v>
+        <v>18.77950020654195</v>
       </c>
       <c r="C4">
-        <v>13.14966787010222</v>
+        <v>13.30056501562009</v>
       </c>
       <c r="D4">
-        <v>4.038503825884893</v>
+        <v>3.84058126397555</v>
       </c>
       <c r="E4">
-        <v>10.36773594985787</v>
+        <v>10.42331864804184</v>
       </c>
       <c r="F4">
-        <v>32.87189694626671</v>
+        <v>16.98880746471892</v>
       </c>
       <c r="G4">
-        <v>2.073640416335106</v>
+        <v>2.069075956740866</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.14361051070383</v>
+        <v>16.21969766048136</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.99770211010146</v>
+        <v>13.42326544082878</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.26068375050795</v>
+        <v>18.40752457016652</v>
       </c>
       <c r="C5">
-        <v>12.88531023037263</v>
+        <v>13.07942362101024</v>
       </c>
       <c r="D5">
-        <v>4.054050352487517</v>
+        <v>3.809631514173036</v>
       </c>
       <c r="E5">
-        <v>10.20567671403916</v>
+        <v>10.27844266184012</v>
       </c>
       <c r="F5">
-        <v>32.38990900794852</v>
+        <v>16.85159279325816</v>
       </c>
       <c r="G5">
-        <v>2.076527162507355</v>
+        <v>2.070697221806225</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.80334131614595</v>
+        <v>15.90004778848761</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.66494445639943</v>
+        <v>13.38658874238699</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1929386246381</v>
+        <v>18.34503385248168</v>
       </c>
       <c r="C6">
-        <v>12.84095878346202</v>
+        <v>13.04233757218815</v>
       </c>
       <c r="D6">
-        <v>4.056658039809974</v>
+        <v>3.804467163268221</v>
       </c>
       <c r="E6">
-        <v>10.17871045485997</v>
+        <v>10.25442078180494</v>
       </c>
       <c r="F6">
-        <v>32.30974570183097</v>
+        <v>16.82907991226595</v>
       </c>
       <c r="G6">
-        <v>2.077008828480178</v>
+        <v>2.070968126934862</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.74626130922228</v>
+        <v>15.84638379585568</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.60971683293397</v>
+        <v>13.38080018313629</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.65887956684493</v>
+        <v>18.77453216341266</v>
       </c>
       <c r="C7">
-        <v>13.14613310040046</v>
+        <v>13.29760721567885</v>
       </c>
       <c r="D7">
-        <v>4.038711715670582</v>
+        <v>3.840165572270499</v>
       </c>
       <c r="E7">
-        <v>10.36555423228486</v>
+        <v>10.42136260700006</v>
       </c>
       <c r="F7">
-        <v>32.86540567407506</v>
+        <v>16.98693881155194</v>
       </c>
       <c r="G7">
-        <v>2.073679194063325</v>
+        <v>2.069097708593643</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.13906020796523</v>
+        <v>16.21542604215395</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.99321283637751</v>
+        <v>13.42275046949409</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61031480078398</v>
+        <v>20.56472800899393</v>
       </c>
       <c r="C8">
-        <v>14.4273282440727</v>
+        <v>14.37018010205674</v>
       </c>
       <c r="D8">
-        <v>3.963557380865292</v>
+        <v>3.993826414443593</v>
       </c>
       <c r="E8">
-        <v>11.18104884439317</v>
+        <v>11.16174169198086</v>
       </c>
       <c r="F8">
-        <v>35.29568342902757</v>
+        <v>17.72215017909524</v>
       </c>
       <c r="G8">
-        <v>2.059303116585884</v>
+        <v>2.061084198044214</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.78943767546181</v>
+        <v>17.75894496153044</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.68747693232509</v>
+        <v>13.65292747544345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.07509977330841</v>
+        <v>23.70076956048702</v>
       </c>
       <c r="C9">
-        <v>16.71243029463148</v>
+        <v>16.27513677061177</v>
       </c>
       <c r="D9">
-        <v>3.83343819494826</v>
+        <v>4.279494448430829</v>
       </c>
       <c r="E9">
-        <v>12.7438483363208</v>
+        <v>12.61673804631028</v>
       </c>
       <c r="F9">
-        <v>39.96567582758417</v>
+        <v>19.29385881237703</v>
       </c>
       <c r="G9">
-        <v>2.032023850723738</v>
+        <v>2.04616890047019</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.74027385418438</v>
+        <v>20.48397515312381</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.00513946678547</v>
+        <v>14.27613380196213</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.41501906614972</v>
+        <v>25.78054783564003</v>
       </c>
       <c r="C10">
-        <v>18.26211108794219</v>
+        <v>17.55169518313701</v>
       </c>
       <c r="D10">
-        <v>3.751738803813713</v>
+        <v>4.478541982188825</v>
       </c>
       <c r="E10">
-        <v>13.90540952120759</v>
+        <v>13.87946638908398</v>
       </c>
       <c r="F10">
-        <v>43.33498408722707</v>
+        <v>20.52010972207754</v>
       </c>
       <c r="G10">
-        <v>2.012288918676612</v>
+        <v>2.035631519440429</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.74818356134467</v>
+        <v>22.30676426715108</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.43729640083804</v>
+        <v>14.84568390760334</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.43864502618813</v>
+        <v>26.67906162209355</v>
       </c>
       <c r="C11">
-        <v>18.9415841767833</v>
+        <v>18.10564852248153</v>
       </c>
       <c r="D11">
-        <v>3.718578992427642</v>
+        <v>4.566530121353186</v>
       </c>
       <c r="E11">
-        <v>14.49546609311376</v>
+        <v>14.46310735347129</v>
       </c>
       <c r="F11">
-        <v>44.8565000931652</v>
+        <v>21.09211862506976</v>
       </c>
       <c r="G11">
-        <v>2.003312481684451</v>
+        <v>2.030913136008213</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.63053919556485</v>
+        <v>23.09833068204972</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.54409419375509</v>
+        <v>15.13011843025147</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.82075707121364</v>
+        <v>27.01255971334033</v>
       </c>
       <c r="C12">
-        <v>19.19546780498593</v>
+        <v>18.31157998003133</v>
       </c>
       <c r="D12">
-        <v>3.706703673621265</v>
+        <v>4.599466999963369</v>
       </c>
       <c r="E12">
-        <v>14.71700108833633</v>
+        <v>14.68180489134041</v>
       </c>
       <c r="F12">
-        <v>45.431418088394</v>
+        <v>21.31067638263478</v>
       </c>
       <c r="G12">
-        <v>1.999907114740434</v>
+        <v>2.029135759311745</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.96055472038102</v>
+        <v>23.39278347355765</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.96353523013546</v>
+        <v>15.24153859526295</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.7387014134002</v>
+        <v>26.94103353966344</v>
       </c>
       <c r="C13">
-        <v>19.14093710839869</v>
+        <v>18.26739939631799</v>
       </c>
       <c r="D13">
-        <v>3.70922900703799</v>
+        <v>4.592390654534148</v>
       </c>
       <c r="E13">
-        <v>14.66936922839627</v>
+        <v>14.63480502253671</v>
       </c>
       <c r="F13">
-        <v>45.30764715896822</v>
+        <v>21.26352042229859</v>
       </c>
       <c r="G13">
-        <v>2.000640907756153</v>
+        <v>2.029518156439493</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.88965676163798</v>
+        <v>23.32960138472444</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.87318130878515</v>
+        <v>15.21737625013198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.47018989254564</v>
+        <v>26.7066334158282</v>
       </c>
       <c r="C14">
-        <v>18.96253829158571</v>
+        <v>18.12266746065743</v>
       </c>
       <c r="D14">
-        <v>3.717587660604323</v>
+        <v>4.56924759204288</v>
       </c>
       <c r="E14">
-        <v>14.5137282904577</v>
+        <v>14.48114526863345</v>
       </c>
       <c r="F14">
-        <v>44.90382127944118</v>
+        <v>21.11006082149212</v>
       </c>
       <c r="G14">
-        <v>2.00303248376962</v>
+        <v>2.030766730949534</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.65777001187525</v>
+        <v>23.1226609322751</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.57859348153688</v>
+        <v>15.13921030947181</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.30501226117087</v>
+        <v>26.56218050077639</v>
       </c>
       <c r="C15">
-        <v>18.85282669099152</v>
+        <v>18.03351556190113</v>
       </c>
       <c r="D15">
-        <v>3.722799841448691</v>
+        <v>4.555021633901533</v>
       </c>
       <c r="E15">
-        <v>14.41815484202551</v>
+        <v>14.38672718004228</v>
       </c>
       <c r="F15">
-        <v>44.65631739276687</v>
+        <v>21.01631423292252</v>
       </c>
       <c r="G15">
-        <v>2.004496383326767</v>
+        <v>2.031532694937205</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.51520830773984</v>
+        <v>22.99521782628352</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.39820162782103</v>
+        <v>15.09181652077501</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.34733082077152</v>
+        <v>25.72087805132178</v>
       </c>
       <c r="C16">
-        <v>18.21721334854829</v>
+        <v>17.51495506101926</v>
       </c>
       <c r="D16">
-        <v>3.753995025324311</v>
+        <v>4.47273896170368</v>
       </c>
       <c r="E16">
-        <v>13.86656427992985</v>
+        <v>13.8409923356194</v>
       </c>
       <c r="F16">
-        <v>43.23535151619455</v>
+        <v>20.48300472986204</v>
       </c>
       <c r="G16">
-        <v>2.012875050661235</v>
+        <v>2.035941269114681</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.68992364365679</v>
+        <v>22.25428587215986</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.36499232438054</v>
+        <v>14.82761132980591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.74961005557002</v>
+        <v>25.19264163556735</v>
       </c>
       <c r="C17">
-        <v>17.82092200034969</v>
+        <v>17.18998371331217</v>
       </c>
       <c r="D17">
-        <v>3.774226829394451</v>
+        <v>4.421594592791117</v>
       </c>
       <c r="E17">
-        <v>13.54494558799501</v>
+        <v>13.50192788489282</v>
       </c>
       <c r="F17">
-        <v>42.3609753373924</v>
+        <v>20.15939695144994</v>
       </c>
       <c r="G17">
-        <v>2.018011141507669</v>
+        <v>2.038664048113077</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.17592002221128</v>
+        <v>21.79018809568238</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.73140330551897</v>
+        <v>14.67207166708058</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.40195138192213</v>
+        <v>24.88432869530686</v>
       </c>
       <c r="C18">
-        <v>17.59057018048337</v>
+        <v>17.00054862770961</v>
       </c>
       <c r="D18">
-        <v>3.786233189133642</v>
+        <v>4.391937454856005</v>
       </c>
       <c r="E18">
-        <v>13.37635825448737</v>
+        <v>13.30529429042404</v>
       </c>
       <c r="F18">
-        <v>41.85697198459244</v>
+        <v>19.97460488007441</v>
       </c>
       <c r="G18">
-        <v>2.020965816775518</v>
+        <v>2.040237282151693</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.87733213909683</v>
+        <v>21.51970183259322</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.3669941863977</v>
+        <v>14.58499162195452</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.28356609821376</v>
+        <v>24.77916616621691</v>
       </c>
       <c r="C19">
-        <v>17.51215522409825</v>
+        <v>16.93597625210338</v>
       </c>
       <c r="D19">
-        <v>3.790358929760298</v>
+        <v>4.381855275259417</v>
       </c>
       <c r="E19">
-        <v>13.31921687039336</v>
+        <v>13.23843681151036</v>
       </c>
       <c r="F19">
-        <v>41.68613021311579</v>
+        <v>19.91227051548919</v>
       </c>
       <c r="G19">
-        <v>2.021966488793667</v>
+        <v>2.040771224119268</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.77571940436207</v>
+        <v>21.42750690523309</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.24360794808255</v>
+        <v>14.55591477667224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.81363607962097</v>
+        <v>25.24933686824226</v>
       </c>
       <c r="C20">
-        <v>17.86335621900575</v>
+        <v>17.22483826860193</v>
       </c>
       <c r="D20">
-        <v>3.772034173455115</v>
+        <v>4.427063975351196</v>
       </c>
       <c r="E20">
-        <v>13.57611950799927</v>
+        <v>13.53818787665256</v>
       </c>
       <c r="F20">
-        <v>42.45416437213402</v>
+        <v>20.19370774817916</v>
       </c>
       <c r="G20">
-        <v>2.017464383841791</v>
+        <v>2.038373472208706</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.23093915510156</v>
+        <v>21.83995866322126</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.79884691151865</v>
+        <v>14.68838206294356</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.54920478047976</v>
+        <v>26.77566480732724</v>
       </c>
       <c r="C21">
-        <v>19.01502896066253</v>
+        <v>18.16528278039587</v>
       </c>
       <c r="D21">
-        <v>3.715113073954782</v>
+        <v>4.576055746134148</v>
       </c>
       <c r="E21">
-        <v>14.55949300296327</v>
+        <v>14.52634049645587</v>
       </c>
       <c r="F21">
-        <v>45.02246487646803</v>
+        <v>21.15508325895748</v>
       </c>
       <c r="G21">
-        <v>2.002330243051417</v>
+        <v>2.030399751993416</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.72598934871022</v>
+        <v>23.18358712003654</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.6651096471068</v>
+        <v>15.16206833750456</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.65156694808517</v>
+        <v>27.73391626408114</v>
       </c>
       <c r="C22">
-        <v>19.74793355905378</v>
+        <v>18.75755622403371</v>
       </c>
       <c r="D22">
-        <v>3.681950118347956</v>
+        <v>4.671197402185399</v>
       </c>
       <c r="E22">
-        <v>15.20110541065763</v>
+        <v>15.15874253767533</v>
       </c>
       <c r="F22">
-        <v>46.69401597347262</v>
+        <v>21.79474624477698</v>
       </c>
       <c r="G22">
-        <v>1.992399489901204</v>
+        <v>2.025242340311054</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.6793171439747</v>
+        <v>24.03091786708218</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.88690341300388</v>
+        <v>15.49330618306795</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.06600687510955</v>
+        <v>27.22604148939221</v>
       </c>
       <c r="C23">
-        <v>19.35848674794303</v>
+        <v>18.44348845621413</v>
       </c>
       <c r="D23">
-        <v>3.69923953975553</v>
+        <v>4.620626817058044</v>
       </c>
       <c r="E23">
-        <v>14.85955734916466</v>
+        <v>14.82239456638951</v>
       </c>
       <c r="F23">
-        <v>45.80235361932175</v>
+        <v>21.45232939614202</v>
       </c>
       <c r="G23">
-        <v>1.997705707001676</v>
+        <v>2.02799052407086</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.17255333939728</v>
+        <v>23.58145920652591</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.23449845009819</v>
+        <v>15.31451668285183</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.78470246506696</v>
+        <v>25.22371935947299</v>
       </c>
       <c r="C24">
-        <v>17.84417957185563</v>
+        <v>17.20908863786244</v>
       </c>
       <c r="D24">
-        <v>3.773024313413015</v>
+        <v>4.424592056161197</v>
       </c>
       <c r="E24">
-        <v>13.56202704931919</v>
+        <v>13.52180004229658</v>
       </c>
       <c r="F24">
-        <v>42.41203772408507</v>
+        <v>20.17819192281965</v>
       </c>
       <c r="G24">
-        <v>2.017711566698205</v>
+        <v>2.038504816948596</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.20607462559066</v>
+        <v>21.81746883023968</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.76835614384927</v>
+        <v>14.6810008439615</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.17507475498045</v>
+        <v>22.89210195658817</v>
       </c>
       <c r="C25">
-        <v>16.11770028536596</v>
+        <v>15.78131925699129</v>
       </c>
       <c r="D25">
-        <v>3.866483526093</v>
+        <v>4.20403440119482</v>
       </c>
       <c r="E25">
-        <v>12.32504438220709</v>
+        <v>12.2235242522598</v>
       </c>
       <c r="F25">
-        <v>38.71341190594925</v>
+        <v>18.85558265268053</v>
       </c>
       <c r="G25">
-        <v>2.039329821791553</v>
+        <v>2.050124877577869</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.97122296864973</v>
+        <v>19.77865428471438</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.10872445054572</v>
+        <v>14.08834771637738</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.02430817274765</v>
+        <v>20.68765727133475</v>
       </c>
       <c r="C2">
-        <v>14.64749342899964</v>
+        <v>16.18898265770956</v>
       </c>
       <c r="D2">
-        <v>4.034455624799785</v>
+        <v>4.797504366876907</v>
       </c>
       <c r="E2">
-        <v>11.36285351902625</v>
+        <v>11.24815062007971</v>
       </c>
       <c r="F2">
-        <v>17.93044899956847</v>
+        <v>14.42108909971308</v>
       </c>
       <c r="G2">
-        <v>2.058969315572304</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>16.48221312891131</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.442842524679336</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.124994270730012</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.13472335199594</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.15659081240609</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.7266147485884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.21188326064806</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.041919245818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.66290506532368</v>
+        <v>19.39340921552573</v>
       </c>
       <c r="C3">
-        <v>13.82824348609839</v>
+        <v>15.33772933249672</v>
       </c>
       <c r="D3">
-        <v>3.915470705451204</v>
+        <v>4.570404030380983</v>
       </c>
       <c r="E3">
-        <v>10.78000713186082</v>
+        <v>10.69605352620021</v>
       </c>
       <c r="F3">
-        <v>17.33641345980246</v>
+        <v>14.06554002588383</v>
       </c>
       <c r="G3">
-        <v>2.065165303285088</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>16.00267844528682</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.282727572354323</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.180862092710036</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.43101502413763</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.98031329241018</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.52573650964506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17.06577000004866</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.01932583970708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77950020654195</v>
+        <v>18.55244406067826</v>
       </c>
       <c r="C4">
-        <v>13.30056501562009</v>
+        <v>14.79428777338906</v>
       </c>
       <c r="D4">
-        <v>3.84058126397555</v>
+        <v>4.425203112030228</v>
       </c>
       <c r="E4">
-        <v>10.42331864804184</v>
+        <v>10.35993492384703</v>
       </c>
       <c r="F4">
-        <v>16.98880746471892</v>
+        <v>13.85674602047882</v>
       </c>
       <c r="G4">
-        <v>2.069075956740866</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>15.72349424089025</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.181736136511448</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.219928543845443</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.61856520494829</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.21969766048136</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.42326544082878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.32390881192803</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.01639664191598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.40752457016652</v>
+        <v>18.19747054245591</v>
       </c>
       <c r="C5">
-        <v>13.07942362101024</v>
+        <v>14.57947353488916</v>
       </c>
       <c r="D5">
-        <v>3.809631514173036</v>
+        <v>4.36637652616135</v>
       </c>
       <c r="E5">
-        <v>10.27844266184012</v>
+        <v>10.22190163854414</v>
       </c>
       <c r="F5">
-        <v>16.85159279325816</v>
+        <v>13.76606287183935</v>
       </c>
       <c r="G5">
-        <v>2.070697221806225</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>15.59873274948508</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.140248366040852</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.234804347338929</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.69260602103212</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.90004778848761</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.38658874238699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>16.01363969397455</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.01201950755265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.34503385248168</v>
+        <v>18.13701399005925</v>
       </c>
       <c r="C6">
-        <v>13.04233757218815</v>
+        <v>14.55786973930773</v>
       </c>
       <c r="D6">
-        <v>3.804467163268221</v>
+        <v>4.358669084555915</v>
       </c>
       <c r="E6">
-        <v>10.25442078180494</v>
+        <v>10.19660618737411</v>
       </c>
       <c r="F6">
-        <v>16.82907991226595</v>
+        <v>13.74128952141527</v>
       </c>
       <c r="G6">
-        <v>2.070968126934862</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>15.56000134600959</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.13392872334686</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.234662046385947</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.70037227489314</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.84638379585568</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.38080018313629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.96353987981508</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.00433506248726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77453216341266</v>
+        <v>18.54554120609964</v>
       </c>
       <c r="C7">
-        <v>13.29760721567885</v>
+        <v>14.82998081039172</v>
       </c>
       <c r="D7">
-        <v>3.840165572270499</v>
+        <v>4.430188881590025</v>
       </c>
       <c r="E7">
-        <v>10.42136260700006</v>
+        <v>10.35153789877503</v>
       </c>
       <c r="F7">
-        <v>16.98693881155194</v>
+        <v>13.82878332861138</v>
       </c>
       <c r="G7">
-        <v>2.069097708593643</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>15.67239465162707</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.182558811126354</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.212799550264962</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.60691089335441</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.21542604215395</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.42275046949409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.32510076678398</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.99692012611957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56472800899393</v>
+        <v>20.24841016585554</v>
       </c>
       <c r="C8">
-        <v>14.37018010205674</v>
+        <v>15.94796822801679</v>
       </c>
       <c r="D8">
-        <v>3.993826414443593</v>
+        <v>4.727688785060979</v>
       </c>
       <c r="E8">
-        <v>11.16174169198086</v>
+        <v>11.04924409445703</v>
       </c>
       <c r="F8">
-        <v>17.72215017909524</v>
+        <v>14.26230403430353</v>
       </c>
       <c r="G8">
-        <v>2.061084198044214</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>16.25075938452089</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.389636988183825</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.13353089296919</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.21876542268052</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.75894496153044</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.65292747544345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.83116538868937</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.00626970428893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70076956048702</v>
+        <v>23.2233165278208</v>
       </c>
       <c r="C9">
-        <v>16.27513677061177</v>
+        <v>17.90788763061887</v>
       </c>
       <c r="D9">
-        <v>4.279494448430829</v>
+        <v>5.254312374213995</v>
       </c>
       <c r="E9">
-        <v>12.61673804631028</v>
+        <v>12.4429519357267</v>
       </c>
       <c r="F9">
-        <v>19.29385881237703</v>
+        <v>15.23015091161854</v>
       </c>
       <c r="G9">
-        <v>2.04616890047019</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>17.58509675661591</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.77363553217548</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.03138682135885</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.526281402191849</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.48397515312381</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.27613380196213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.47404963108086</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.15104292563008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.78054783564003</v>
+        <v>25.1843700301512</v>
       </c>
       <c r="C10">
-        <v>17.55169518313701</v>
+        <v>19.25686671574763</v>
       </c>
       <c r="D10">
-        <v>4.478541982188825</v>
+        <v>5.613463220036746</v>
       </c>
       <c r="E10">
-        <v>13.87946638908398</v>
+        <v>13.69427212647543</v>
       </c>
       <c r="F10">
-        <v>20.52010972207754</v>
+        <v>15.96796982963765</v>
       </c>
       <c r="G10">
-        <v>2.035631519440429</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>18.60702542579453</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.045218134534109</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.980597565311604</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9.040832554735209</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.30676426715108</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.84568390760334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22.23576215589254</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.31067457427611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.67906162209355</v>
+        <v>26.02581644702523</v>
       </c>
       <c r="C11">
-        <v>18.10564852248153</v>
+        <v>19.89539372801803</v>
       </c>
       <c r="D11">
-        <v>4.566530121353186</v>
+        <v>5.777596285067273</v>
       </c>
       <c r="E11">
-        <v>14.46310735347129</v>
+        <v>14.25932689556546</v>
       </c>
       <c r="F11">
-        <v>21.09211862506976</v>
+        <v>16.27449219399765</v>
       </c>
       <c r="G11">
-        <v>2.030913136008213</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>19.01895058837836</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.169338207600958</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.952358048351805</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.804618675232685</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.09833068204972</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.13011843025147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23.00459796699861</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.3682907539233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.01255971334033</v>
+        <v>26.33890873021955</v>
       </c>
       <c r="C12">
-        <v>18.31157998003133</v>
+        <v>20.10694466889535</v>
       </c>
       <c r="D12">
-        <v>4.599466999963369</v>
+        <v>5.834627779306273</v>
       </c>
       <c r="E12">
-        <v>14.68180489134041</v>
+        <v>14.47463806302301</v>
       </c>
       <c r="F12">
-        <v>21.31067638263478</v>
+        <v>16.41149390666007</v>
       </c>
       <c r="G12">
-        <v>2.029135759311745</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>19.21242610804463</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.214637375902557</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.949088907692323</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.728036853438555</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.39278347355765</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.24153859526295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>23.28669585077389</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.40841133172026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.94103353966344</v>
+        <v>26.27204851701603</v>
       </c>
       <c r="C13">
-        <v>18.26739939631799</v>
+        <v>20.05628056231482</v>
       </c>
       <c r="D13">
-        <v>4.592390654534148</v>
+        <v>5.821576371398545</v>
       </c>
       <c r="E13">
-        <v>14.63480502253671</v>
+        <v>14.4291252275076</v>
       </c>
       <c r="F13">
-        <v>21.26352042229859</v>
+        <v>16.38587159475515</v>
       </c>
       <c r="G13">
-        <v>2.029518156439493</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>19.17770917777464</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.204559556665501</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.951025439080066</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.746875017908112</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.32960138472444</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.21737625013198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>23.22550163511483</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.40286955119207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.7066334158282</v>
+        <v>26.05182571645861</v>
       </c>
       <c r="C14">
-        <v>18.12266746065743</v>
+        <v>19.91061912701025</v>
       </c>
       <c r="D14">
-        <v>4.56924759204288</v>
+        <v>5.781960779396031</v>
       </c>
       <c r="E14">
-        <v>14.48114526863345</v>
+        <v>14.2774116704034</v>
       </c>
       <c r="F14">
-        <v>21.11006082149212</v>
+        <v>16.2874220537915</v>
       </c>
       <c r="G14">
-        <v>2.030766730949534</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>19.03784067684711</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.172923161822124</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.952611717879378</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.799308569989179</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.1226609322751</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.13921030947181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>23.02762373500865</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.37290939605957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56218050077639</v>
+        <v>25.91550778836847</v>
       </c>
       <c r="C15">
-        <v>18.03351556190113</v>
+        <v>19.83143905684708</v>
       </c>
       <c r="D15">
-        <v>4.555021633901533</v>
+        <v>5.759185966818507</v>
       </c>
       <c r="E15">
-        <v>14.38672718004228</v>
+        <v>14.1826533875497</v>
       </c>
       <c r="F15">
-        <v>21.01631423292252</v>
+        <v>16.219420875478</v>
       </c>
       <c r="G15">
-        <v>2.031532694937205</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>18.93834999692154</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.154242448881535</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.951199715879129</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.826901124984724</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.99521782628352</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.09181652077501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>22.90706856148259</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.34851541067659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.72087805132178</v>
+        <v>25.12384856468096</v>
       </c>
       <c r="C16">
-        <v>17.51495506101926</v>
+        <v>19.30473160810613</v>
       </c>
       <c r="D16">
-        <v>4.47273896170368</v>
+        <v>5.616481943580108</v>
       </c>
       <c r="E16">
-        <v>13.8409923356194</v>
+        <v>13.64393464047098</v>
       </c>
       <c r="F16">
-        <v>20.48300472986204</v>
+        <v>15.88107067375169</v>
       </c>
       <c r="G16">
-        <v>2.035941269114681</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>18.45979689749277</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.042279058010117</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.961303543781313</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.017311443005349</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.25428587215986</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.82761132980591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>22.19654561371834</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.25342198998174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.19264163556735</v>
+        <v>24.62585472654603</v>
       </c>
       <c r="C17">
-        <v>17.18998371331217</v>
+        <v>18.97552225571222</v>
       </c>
       <c r="D17">
-        <v>4.421594592791117</v>
+        <v>5.527185982871603</v>
       </c>
       <c r="E17">
-        <v>13.50192788489282</v>
+        <v>13.30880882625928</v>
       </c>
       <c r="F17">
-        <v>20.15939695144994</v>
+        <v>15.67537262217502</v>
       </c>
       <c r="G17">
-        <v>2.038664048113077</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>18.16924625936249</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.973196280399528</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.969394336231427</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.136257033447368</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.79018809568238</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.67207166708058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>21.75075379611297</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.19912357606375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88432869530686</v>
+        <v>24.33630409458309</v>
       </c>
       <c r="C18">
-        <v>17.00054862770961</v>
+        <v>18.75593412665531</v>
       </c>
       <c r="D18">
-        <v>4.391937454856005</v>
+        <v>5.470882699305594</v>
       </c>
       <c r="E18">
-        <v>13.30529429042404</v>
+        <v>13.11843908182546</v>
       </c>
       <c r="F18">
-        <v>19.97460488007441</v>
+        <v>15.57850790680095</v>
       </c>
       <c r="G18">
-        <v>2.040237282151693</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>18.04073897635031</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.931010692152532</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.981165327531172</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.217019910108322</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.51970183259322</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.58499162195452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>21.48699763915289</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.18578014897328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.77916616621691</v>
+        <v>24.23638835825791</v>
       </c>
       <c r="C19">
-        <v>16.93597625210338</v>
+        <v>18.70276126918598</v>
       </c>
       <c r="D19">
-        <v>4.381855275259417</v>
+        <v>5.455023311135393</v>
       </c>
       <c r="E19">
-        <v>13.23843681151036</v>
+        <v>13.05051933718956</v>
       </c>
       <c r="F19">
-        <v>19.91227051548919</v>
+        <v>15.52987602398618</v>
       </c>
       <c r="G19">
-        <v>2.040771224119268</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>17.96860702589858</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.91840812166671</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.980293771070651</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.235531767437232</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.42750690523309</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.55591477667224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>21.39990272122122</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.16884459084651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.24933686824226</v>
+        <v>24.67944748105779</v>
       </c>
       <c r="C20">
-        <v>17.22483826860193</v>
+        <v>19.0086220568652</v>
       </c>
       <c r="D20">
-        <v>4.427063975351196</v>
+        <v>5.53642323587869</v>
       </c>
       <c r="E20">
-        <v>13.53818787665256</v>
+        <v>13.344979828449</v>
       </c>
       <c r="F20">
-        <v>20.19370774817916</v>
+        <v>15.6988090931729</v>
       </c>
       <c r="G20">
-        <v>2.038373472208706</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>18.20296622905712</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.980381128069766</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.968968448182651</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9.124429946862584</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.83995866322126</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.68838206294356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.79830143426054</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.20603733108699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.77566480732724</v>
+        <v>26.11521465012309</v>
       </c>
       <c r="C21">
-        <v>18.16528278039587</v>
+        <v>19.98308275504265</v>
       </c>
       <c r="D21">
-        <v>4.576055746134148</v>
+        <v>5.798196836427334</v>
       </c>
       <c r="E21">
-        <v>14.52634049645587</v>
+        <v>14.31783014161434</v>
       </c>
       <c r="F21">
-        <v>21.15508325895748</v>
+        <v>16.29423103127657</v>
       </c>
       <c r="G21">
-        <v>2.030399751993416</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>19.03935565702158</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.184321390925284</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.944935236237386</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.770501932522242</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.18358712003654</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.16206833750456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>23.08975015185914</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.36367787340263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.73391626408114</v>
+        <v>27.01522464400423</v>
       </c>
       <c r="C22">
-        <v>18.75755622403371</v>
+        <v>20.56238214471122</v>
       </c>
       <c r="D22">
-        <v>4.671197402185399</v>
+        <v>5.957698152535749</v>
       </c>
       <c r="E22">
-        <v>15.15874253767533</v>
+        <v>14.94415098105955</v>
       </c>
       <c r="F22">
-        <v>21.79474624477698</v>
+        <v>16.71711948812148</v>
       </c>
       <c r="G22">
-        <v>2.025242340311054</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>19.64541749163203</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.313603114377227</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.944813762728161</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>8.563582843044257</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.03091786708218</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.49330618306795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.89670903605171</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.50303058828717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.22604148939221</v>
+        <v>26.54031041076125</v>
       </c>
       <c r="C23">
-        <v>18.44348845621413</v>
+        <v>20.21968042217208</v>
       </c>
       <c r="D23">
-        <v>4.620626817058044</v>
+        <v>5.867631587423015</v>
       </c>
       <c r="E23">
-        <v>14.82239456638951</v>
+        <v>14.61620925133705</v>
       </c>
       <c r="F23">
-        <v>21.45232939614202</v>
+        <v>16.51733996248346</v>
       </c>
       <c r="G23">
-        <v>2.02799052407086</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>19.36836306952312</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.242495471311942</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.95291668464631</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8.689547901374169</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.58145920652591</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.31451668285183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.46434367621004</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.44897667999929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.22371935947299</v>
+        <v>24.65821557419036</v>
       </c>
       <c r="C24">
-        <v>17.20908863786244</v>
+        <v>18.93499505609435</v>
       </c>
       <c r="D24">
-        <v>4.424592056161197</v>
+        <v>5.523223229723064</v>
       </c>
       <c r="E24">
-        <v>13.52180004229658</v>
+        <v>13.33720848231258</v>
       </c>
       <c r="F24">
-        <v>20.17819192281965</v>
+        <v>15.73172798908571</v>
       </c>
       <c r="G24">
-        <v>2.038504816948596</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>18.26620730227684</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.973037634756652</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.982799785220732</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>9.154534697252107</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.81746883023968</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.6810008439615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.76910326234066</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.23757287033987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.89210195658817</v>
+        <v>22.45472816577584</v>
       </c>
       <c r="C25">
-        <v>15.78131925699129</v>
+        <v>17.45704175829283</v>
       </c>
       <c r="D25">
-        <v>4.20403440119482</v>
+        <v>5.126350150970385</v>
       </c>
       <c r="E25">
-        <v>12.2235242522598</v>
+        <v>12.05533297622164</v>
       </c>
       <c r="F25">
-        <v>18.85558265268053</v>
+        <v>14.91669006737061</v>
       </c>
       <c r="G25">
-        <v>2.050124877577869</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>17.13146687019594</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.674590461934112</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.041105295121509</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.684977230534846</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.77865428471438</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.08834771637738</v>
+        <v>19.7993541611853</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.06698805893893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.68765727133475</v>
+        <v>20.66167343640369</v>
       </c>
       <c r="C2">
-        <v>16.18898265770956</v>
+        <v>16.30335980134469</v>
       </c>
       <c r="D2">
-        <v>4.797504366876907</v>
+        <v>4.846275052280487</v>
       </c>
       <c r="E2">
-        <v>11.24815062007971</v>
+        <v>11.20132578680831</v>
       </c>
       <c r="F2">
-        <v>14.42108909971308</v>
+        <v>14.35125044661675</v>
       </c>
       <c r="G2">
-        <v>16.48221312891131</v>
+        <v>15.64489528850724</v>
       </c>
       <c r="I2">
-        <v>3.442842524679336</v>
+        <v>3.411960583804824</v>
       </c>
       <c r="J2">
-        <v>7.124994270730012</v>
+        <v>7.854274283800075</v>
       </c>
       <c r="K2">
-        <v>10.13472335199594</v>
+        <v>10.12499107976422</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.792533600131367</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.172783919275764</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.21188326064806</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.041919245818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.21935601855488</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.0255510074675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39340921552573</v>
+        <v>19.38078586907896</v>
       </c>
       <c r="C3">
-        <v>15.33772933249672</v>
+        <v>15.36157527310348</v>
       </c>
       <c r="D3">
-        <v>4.570404030380983</v>
+        <v>4.604199358364684</v>
       </c>
       <c r="E3">
-        <v>10.69605352620021</v>
+        <v>10.66116459199258</v>
       </c>
       <c r="F3">
-        <v>14.06554002588383</v>
+        <v>14.03687250595712</v>
       </c>
       <c r="G3">
-        <v>16.00267844528682</v>
+        <v>15.19340630188364</v>
       </c>
       <c r="I3">
-        <v>3.282727572354323</v>
+        <v>3.26955828129033</v>
       </c>
       <c r="J3">
-        <v>7.180862092710036</v>
+        <v>7.886062760848335</v>
       </c>
       <c r="K3">
-        <v>10.43101502413763</v>
+        <v>10.41223742537321</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.01824496328511</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.416659261967983</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.06577000004866</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.01932583970708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.06710670427011</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.0254455881881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.55244406067826</v>
+        <v>18.5486453387996</v>
       </c>
       <c r="C4">
-        <v>14.79428777338906</v>
+        <v>14.7593873526789</v>
       </c>
       <c r="D4">
-        <v>4.425203112030228</v>
+        <v>4.449345627117853</v>
       </c>
       <c r="E4">
-        <v>10.35993492384703</v>
+        <v>10.33278588464601</v>
       </c>
       <c r="F4">
-        <v>13.85674602047882</v>
+        <v>13.85163171890013</v>
       </c>
       <c r="G4">
-        <v>15.72349424089025</v>
+        <v>14.93220492252964</v>
       </c>
       <c r="I4">
-        <v>3.181736136511448</v>
+        <v>3.179855945081901</v>
       </c>
       <c r="J4">
-        <v>7.219928543845443</v>
+        <v>7.907764872699611</v>
       </c>
       <c r="K4">
-        <v>10.61856520494829</v>
+        <v>10.59290597874027</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.1639410127695</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.589324924644103</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.32390881192803</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.01639664191598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.32102979580092</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.03426859096214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19747054245591</v>
+        <v>18.19745108059371</v>
       </c>
       <c r="C5">
-        <v>14.57947353488916</v>
+        <v>14.51976325373824</v>
       </c>
       <c r="D5">
-        <v>4.36637652616135</v>
+        <v>4.386432615129515</v>
       </c>
       <c r="E5">
-        <v>10.22190163854414</v>
+        <v>10.19804730936186</v>
       </c>
       <c r="F5">
-        <v>13.76606287183935</v>
+        <v>13.77029795940444</v>
       </c>
       <c r="G5">
-        <v>15.59873274948508</v>
+        <v>14.81478195848526</v>
       </c>
       <c r="I5">
-        <v>3.140248366040852</v>
+        <v>3.143314245260103</v>
       </c>
       <c r="J5">
-        <v>7.234804347338929</v>
+        <v>7.915090035146764</v>
       </c>
       <c r="K5">
-        <v>10.69260602103212</v>
+        <v>10.6639872061946</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.22113702382851</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.664047562124274</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.01363969397455</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.01201950755265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.00890187090194</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.03434904386668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13701399005925</v>
+        <v>18.13764808596931</v>
       </c>
       <c r="C6">
-        <v>14.55786973930773</v>
+        <v>14.49386539030698</v>
       </c>
       <c r="D6">
-        <v>4.358669084555915</v>
+        <v>4.377986256371249</v>
       </c>
       <c r="E6">
-        <v>10.19660618737411</v>
+        <v>10.17336137702976</v>
       </c>
       <c r="F6">
-        <v>13.74128952141527</v>
+        <v>13.7473214226278</v>
       </c>
       <c r="G6">
-        <v>15.56000134600959</v>
+        <v>14.77713193027869</v>
       </c>
       <c r="I6">
-        <v>3.13392872334686</v>
+        <v>3.138151604094094</v>
       </c>
       <c r="J6">
-        <v>7.234662046385947</v>
+        <v>7.913830986096741</v>
       </c>
       <c r="K6">
-        <v>10.70037227489314</v>
+        <v>10.67143721320773</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.22593438920337</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.675528659140543</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.96353987981508</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.00433506248726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.95844506907002</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.02759129710135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.54554120609964</v>
+        <v>18.54172181464651</v>
       </c>
       <c r="C7">
-        <v>14.82998081039172</v>
+        <v>14.78892774461773</v>
       </c>
       <c r="D7">
-        <v>4.430188881590025</v>
+        <v>4.457669055059542</v>
       </c>
       <c r="E7">
-        <v>10.35153789877503</v>
+        <v>10.32515484933209</v>
       </c>
       <c r="F7">
-        <v>13.82878332861138</v>
+        <v>13.80929203734998</v>
       </c>
       <c r="G7">
-        <v>15.67239465162707</v>
+        <v>14.97755266321983</v>
       </c>
       <c r="I7">
-        <v>3.182558811126354</v>
+        <v>3.181110662635117</v>
       </c>
       <c r="J7">
-        <v>7.212799550264962</v>
+        <v>7.864965175859234</v>
       </c>
       <c r="K7">
-        <v>10.60691089335441</v>
+        <v>10.57796531271607</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.14788179431732</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.584993647460915</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.32510076678398</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.99692012611957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.32115676366872</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.00465418572076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.24841016585554</v>
+        <v>20.22666065404457</v>
       </c>
       <c r="C8">
-        <v>15.94796822801679</v>
+        <v>16.01436495466264</v>
       </c>
       <c r="D8">
-        <v>4.727688785060979</v>
+        <v>4.782379000715133</v>
       </c>
       <c r="E8">
-        <v>11.04924409445703</v>
+        <v>11.00849409362745</v>
       </c>
       <c r="F8">
-        <v>14.26230403430353</v>
+        <v>14.15875188183128</v>
       </c>
       <c r="G8">
-        <v>16.25075938452089</v>
+        <v>15.73340798319637</v>
       </c>
       <c r="I8">
-        <v>3.389636988183825</v>
+        <v>3.364349726566016</v>
       </c>
       <c r="J8">
-        <v>7.13353089296919</v>
+        <v>7.737727690369884</v>
       </c>
       <c r="K8">
-        <v>10.21876542268052</v>
+        <v>10.19480535052161</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.842598161799195</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.236003257140815</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.83116538868937</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.00626970428893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.83361817964708</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.96326793704353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.2233165278208</v>
+        <v>23.17109398848018</v>
       </c>
       <c r="C9">
-        <v>17.90788763061887</v>
+        <v>18.17975302257551</v>
       </c>
       <c r="D9">
-        <v>5.254312374213995</v>
+        <v>5.345664663347514</v>
       </c>
       <c r="E9">
-        <v>12.4429519357267</v>
+        <v>12.37514540594206</v>
       </c>
       <c r="F9">
-        <v>15.23015091161854</v>
+        <v>15.00501516031365</v>
       </c>
       <c r="G9">
-        <v>17.58509675661591</v>
+        <v>17.06114419273124</v>
       </c>
       <c r="I9">
-        <v>3.77363553217548</v>
+        <v>3.705181069608724</v>
       </c>
       <c r="J9">
-        <v>7.03138682135885</v>
+        <v>7.645822756917979</v>
       </c>
       <c r="K9">
-        <v>9.526281402191849</v>
+        <v>9.512214201926293</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.335013859610108</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.76945480254269</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.47404963108086</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.15104292563008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.48880316963833</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.03032084322772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.1843700301512</v>
+        <v>25.1114539700781</v>
       </c>
       <c r="C10">
-        <v>19.25686671574763</v>
+        <v>19.63785858505839</v>
       </c>
       <c r="D10">
-        <v>5.613463220036746</v>
+        <v>5.746123094765579</v>
       </c>
       <c r="E10">
-        <v>13.69427212647543</v>
+        <v>13.63219396608702</v>
       </c>
       <c r="F10">
-        <v>15.96796982963765</v>
+        <v>15.57091141449615</v>
       </c>
       <c r="G10">
-        <v>18.60702542579453</v>
+        <v>18.56027981877008</v>
       </c>
       <c r="I10">
-        <v>4.045218134534109</v>
+        <v>3.945163577375422</v>
       </c>
       <c r="J10">
-        <v>6.980597565311604</v>
+        <v>7.386741740586612</v>
       </c>
       <c r="K10">
-        <v>9.040832554735209</v>
+        <v>9.003399625539721</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.982462249461671</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.545066699537253</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.23576215589254</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.31067457427611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>22.25264173585685</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.06205846297066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.02581644702523</v>
+        <v>25.94342022330942</v>
       </c>
       <c r="C11">
-        <v>19.89539372801803</v>
+        <v>20.27948722384853</v>
       </c>
       <c r="D11">
-        <v>5.777596285067273</v>
+        <v>5.957458338263344</v>
       </c>
       <c r="E11">
-        <v>14.25932689556546</v>
+        <v>14.19760618526378</v>
       </c>
       <c r="F11">
-        <v>16.27449219399765</v>
+        <v>15.66456053724446</v>
       </c>
       <c r="G11">
-        <v>19.01895058837836</v>
+        <v>20.00714937442115</v>
       </c>
       <c r="I11">
-        <v>4.169338207600958</v>
+        <v>4.053357616164264</v>
       </c>
       <c r="J11">
-        <v>6.952358048351805</v>
+        <v>6.943648623887039</v>
       </c>
       <c r="K11">
-        <v>8.804618675232685</v>
+        <v>8.719251090447569</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.804094498510441</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.406049061331927</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.00459796699861</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.3682907539233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>23.01460109977615</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.95309919255281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.33890873021955</v>
+        <v>26.25292267593439</v>
       </c>
       <c r="C12">
-        <v>20.10694466889535</v>
+        <v>20.48735253945073</v>
       </c>
       <c r="D12">
-        <v>5.834627779306273</v>
+        <v>6.035787609439898</v>
       </c>
       <c r="E12">
-        <v>14.47463806302301</v>
+        <v>14.41356457740869</v>
       </c>
       <c r="F12">
-        <v>16.41149390666007</v>
+        <v>15.7041030684561</v>
       </c>
       <c r="G12">
-        <v>19.21242610804463</v>
+        <v>20.68581580929804</v>
       </c>
       <c r="I12">
-        <v>4.214637375902557</v>
+        <v>4.091603511271075</v>
       </c>
       <c r="J12">
-        <v>6.949088907692323</v>
+        <v>6.757087691912587</v>
       </c>
       <c r="K12">
-        <v>8.728036853438555</v>
+        <v>8.617264036765542</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.742323244089127</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.362682609721567</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.28669585077389</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.40841133172026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>23.29330116962384</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.91549851839882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.27204851701603</v>
+        <v>26.18682549667803</v>
       </c>
       <c r="C13">
-        <v>20.05628056231482</v>
+        <v>20.43779268344231</v>
       </c>
       <c r="D13">
-        <v>5.821576371398545</v>
+        <v>6.018017018718331</v>
       </c>
       <c r="E13">
-        <v>14.4291252275076</v>
+        <v>14.36786453260649</v>
       </c>
       <c r="F13">
-        <v>16.38587159475515</v>
+        <v>15.70006476888836</v>
       </c>
       <c r="G13">
-        <v>19.17770917777464</v>
+        <v>20.54230782444137</v>
       </c>
       <c r="I13">
-        <v>4.204559556665501</v>
+        <v>4.082886946564559</v>
       </c>
       <c r="J13">
-        <v>6.951025439080066</v>
+        <v>6.798812796366254</v>
       </c>
       <c r="K13">
-        <v>8.746875017908112</v>
+        <v>8.641334158817099</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.756519295547299</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.374591701960305</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.22550163511483</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.40286955119207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>23.23289085292732</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.9271580171643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.05182571645861</v>
+        <v>25.96912989912257</v>
       </c>
       <c r="C14">
-        <v>19.91061912701025</v>
+        <v>20.2945470693102</v>
       </c>
       <c r="D14">
-        <v>5.781960779396031</v>
+        <v>5.963515326565714</v>
       </c>
       <c r="E14">
-        <v>14.2774116704034</v>
+        <v>14.21572308248475</v>
       </c>
       <c r="F14">
-        <v>16.2874220537915</v>
+        <v>15.66974309570091</v>
       </c>
       <c r="G14">
-        <v>19.03784067684711</v>
+        <v>20.06402316059208</v>
       </c>
       <c r="I14">
-        <v>4.172923161822124</v>
+        <v>4.056294496911815</v>
       </c>
       <c r="J14">
-        <v>6.952611717879378</v>
+        <v>6.929033887096225</v>
       </c>
       <c r="K14">
-        <v>8.799308569989179</v>
+        <v>8.711766347447357</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.799408955293158</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.403562531132266</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.02762373500865</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.37290939605957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>23.03737058132312</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.95153650926236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.91550778836847</v>
+        <v>25.83438114104282</v>
       </c>
       <c r="C15">
-        <v>19.83143905684708</v>
+        <v>20.21601544720042</v>
       </c>
       <c r="D15">
-        <v>5.759185966818507</v>
+        <v>5.932021984547952</v>
       </c>
       <c r="E15">
-        <v>14.1826533875497</v>
+        <v>14.12082384319138</v>
       </c>
       <c r="F15">
-        <v>16.219420875478</v>
+        <v>15.64161221137335</v>
       </c>
       <c r="G15">
-        <v>18.93834999692154</v>
+        <v>19.76969892002127</v>
       </c>
       <c r="I15">
-        <v>4.154242448881535</v>
+        <v>4.041019913362305</v>
       </c>
       <c r="J15">
-        <v>6.951199715879129</v>
+        <v>7.004466077446507</v>
       </c>
       <c r="K15">
-        <v>8.826901124984724</v>
+        <v>8.750526077395492</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.823789894685536</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.416261596157045</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.90706856148259</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.34851541067659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>22.91811924366309</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.9589140877117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.12384856468096</v>
+        <v>25.05167798287759</v>
       </c>
       <c r="C16">
-        <v>19.30473160810613</v>
+        <v>19.6835314946512</v>
       </c>
       <c r="D16">
-        <v>5.616481943580108</v>
+        <v>5.746197051597108</v>
       </c>
       <c r="E16">
-        <v>13.64393464047098</v>
+        <v>13.58228056235318</v>
       </c>
       <c r="F16">
-        <v>15.88107067375169</v>
+        <v>15.49785973943438</v>
       </c>
       <c r="G16">
-        <v>18.45979689749277</v>
+        <v>18.3606789469834</v>
       </c>
       <c r="I16">
-        <v>4.042279058010117</v>
+        <v>3.94590140300765</v>
       </c>
       <c r="J16">
-        <v>6.961303543781313</v>
+        <v>7.394182131517779</v>
       </c>
       <c r="K16">
-        <v>9.017311443005349</v>
+        <v>8.988380421404571</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.975609580670795</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.515616896709129</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.19654561371834</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.25342198998174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>22.21350198857016</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.01634561963397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.62585472654603</v>
+        <v>24.55919614406017</v>
       </c>
       <c r="C17">
-        <v>18.97552225571222</v>
+        <v>19.341303748557</v>
       </c>
       <c r="D17">
-        <v>5.527185982871603</v>
+        <v>5.636332625937189</v>
       </c>
       <c r="E17">
-        <v>13.30880882625928</v>
+        <v>13.24840700192143</v>
       </c>
       <c r="F17">
-        <v>15.67537262217502</v>
+        <v>15.38306784397205</v>
       </c>
       <c r="G17">
-        <v>18.16924625936249</v>
+        <v>17.66749102647129</v>
       </c>
       <c r="I17">
-        <v>3.973196280399528</v>
+        <v>3.88662798739857</v>
       </c>
       <c r="J17">
-        <v>6.969394336231427</v>
+        <v>7.573596528670399</v>
       </c>
       <c r="K17">
-        <v>9.136257033447368</v>
+        <v>9.12713398504412</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.068019338523962</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.574460273391902</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.75075379611297</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.19912357606375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>21.76974094081535</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.03181072827079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.33630409458309</v>
+        <v>24.27277462732818</v>
       </c>
       <c r="C18">
-        <v>18.75593412665531</v>
+        <v>19.11107798250666</v>
       </c>
       <c r="D18">
-        <v>5.470882699305594</v>
+        <v>5.570453139950744</v>
       </c>
       <c r="E18">
-        <v>13.11843908182546</v>
+        <v>13.05907839704645</v>
       </c>
       <c r="F18">
-        <v>15.57850790680095</v>
+        <v>15.32750825734019</v>
       </c>
       <c r="G18">
-        <v>18.04073897635031</v>
+        <v>17.36860376239441</v>
       </c>
       <c r="I18">
-        <v>3.931010692152532</v>
+        <v>3.848896582942948</v>
       </c>
       <c r="J18">
-        <v>6.981165327531172</v>
+        <v>7.657538351328812</v>
       </c>
       <c r="K18">
-        <v>9.217019910108322</v>
+        <v>9.214497644017626</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.126800637445347</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.618831739804991</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.48699763915289</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.18578014897328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>21.50663652941889</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.04942260878237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.23638835825791</v>
+        <v>24.17394552403454</v>
       </c>
       <c r="C19">
-        <v>18.70276126918598</v>
+        <v>19.05341514201952</v>
       </c>
       <c r="D19">
-        <v>5.455023311135393</v>
+        <v>5.551635475596687</v>
       </c>
       <c r="E19">
-        <v>13.05051933718956</v>
+        <v>12.99167198456127</v>
       </c>
       <c r="F19">
-        <v>15.52987602398618</v>
+        <v>15.29162002542642</v>
       </c>
       <c r="G19">
-        <v>17.96860702589858</v>
+        <v>17.24978469959409</v>
       </c>
       <c r="I19">
-        <v>3.91840812166671</v>
+        <v>3.838501132700426</v>
       </c>
       <c r="J19">
-        <v>6.980293771070651</v>
+        <v>7.677245684775974</v>
       </c>
       <c r="K19">
-        <v>9.235531767437232</v>
+        <v>9.235899517054309</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.141835999603593</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.625463894679168</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.39990272122122</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.16884459084651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>21.4196001353992</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.04211434217188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.67944748105779</v>
+        <v>24.61219945190386</v>
       </c>
       <c r="C20">
-        <v>19.0086220568652</v>
+        <v>19.37618186879071</v>
       </c>
       <c r="D20">
-        <v>5.53642323587869</v>
+        <v>5.647545057408971</v>
       </c>
       <c r="E20">
-        <v>13.344979828449</v>
+        <v>13.28439157135042</v>
       </c>
       <c r="F20">
-        <v>15.6988090931729</v>
+        <v>15.39784649556052</v>
       </c>
       <c r="G20">
-        <v>18.20296622905712</v>
+        <v>17.73762995892113</v>
       </c>
       <c r="I20">
-        <v>3.980381128069766</v>
+        <v>3.892712668323545</v>
       </c>
       <c r="J20">
-        <v>6.968968448182651</v>
+        <v>7.557456592141897</v>
       </c>
       <c r="K20">
-        <v>9.124429946862584</v>
+        <v>9.113410175185068</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.058699484474655</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.569108040312861</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.79830143426054</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.20603733108699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.81713975141705</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.03212045085434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.11521465012309</v>
+        <v>26.03167494647352</v>
       </c>
       <c r="C21">
-        <v>19.98308275504265</v>
+        <v>20.3508905432974</v>
       </c>
       <c r="D21">
-        <v>5.798196836427334</v>
+        <v>5.994432487405042</v>
       </c>
       <c r="E21">
-        <v>14.31783014161434</v>
+        <v>14.25828814886014</v>
       </c>
       <c r="F21">
-        <v>16.29423103127657</v>
+        <v>15.60917229547544</v>
       </c>
       <c r="G21">
-        <v>19.03935565702158</v>
+        <v>20.45729575722441</v>
       </c>
       <c r="I21">
-        <v>4.184321390925284</v>
+        <v>4.06604527939716</v>
       </c>
       <c r="J21">
-        <v>6.944935236237386</v>
+        <v>6.784555532741933</v>
       </c>
       <c r="K21">
-        <v>8.770501932522242</v>
+        <v>8.667088304483265</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.774884913912109</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.364309780200859</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.08975015185914</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.36367787340263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.09623029743046</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.88938841832694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.01522464400423</v>
+        <v>26.92146733519225</v>
       </c>
       <c r="C22">
-        <v>20.56238214471122</v>
+        <v>20.9255471717348</v>
       </c>
       <c r="D22">
-        <v>5.957698152535749</v>
+        <v>6.211716148495016</v>
       </c>
       <c r="E22">
-        <v>14.94415098105955</v>
+        <v>14.88555132023001</v>
       </c>
       <c r="F22">
-        <v>16.71711948812148</v>
+        <v>15.76590798857304</v>
       </c>
       <c r="G22">
-        <v>19.64541749163203</v>
+        <v>22.35262047028189</v>
       </c>
       <c r="I22">
-        <v>4.313603114377227</v>
+        <v>4.174622452092702</v>
       </c>
       <c r="J22">
-        <v>6.944813762728161</v>
+        <v>6.333603560743637</v>
       </c>
       <c r="K22">
-        <v>8.563582843044257</v>
+        <v>8.38643750172074</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.608807911523316</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.263801608424984</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.89670903605171</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.50303058828717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.8943581466679</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.8132435788738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.54031041076125</v>
+        <v>26.45198977119981</v>
       </c>
       <c r="C23">
-        <v>20.21968042217208</v>
+        <v>20.5966446199388</v>
       </c>
       <c r="D23">
-        <v>5.867631587423015</v>
+        <v>6.083533877653193</v>
       </c>
       <c r="E23">
-        <v>14.61620925133705</v>
+        <v>14.55562790564448</v>
       </c>
       <c r="F23">
-        <v>16.51733996248346</v>
+        <v>15.74193407702968</v>
       </c>
       <c r="G23">
-        <v>19.36836306952312</v>
+        <v>21.18014876656997</v>
       </c>
       <c r="I23">
-        <v>4.242495471311942</v>
+        <v>4.114149394774589</v>
       </c>
       <c r="J23">
-        <v>6.95291668464631</v>
+        <v>6.636476138243519</v>
       </c>
       <c r="K23">
-        <v>8.689547901374169</v>
+        <v>8.558542133231096</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.70650998545616</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.344842655456071</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.46434367621004</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.44897667999929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.46858488413207</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.90118649978189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.65821557419036</v>
+        <v>24.59115543500234</v>
       </c>
       <c r="C24">
-        <v>18.93499505609435</v>
+        <v>19.30254344036168</v>
       </c>
       <c r="D24">
-        <v>5.523223229723064</v>
+        <v>5.633666618267579</v>
       </c>
       <c r="E24">
-        <v>13.33720848231258</v>
+        <v>13.27646994393035</v>
       </c>
       <c r="F24">
-        <v>15.73172798908571</v>
+        <v>15.43330612123947</v>
       </c>
       <c r="G24">
-        <v>18.26620730227684</v>
+        <v>17.78299508863814</v>
       </c>
       <c r="I24">
-        <v>3.973037634756652</v>
+        <v>3.883979584816208</v>
       </c>
       <c r="J24">
-        <v>6.982799785220732</v>
+        <v>7.576423455850163</v>
       </c>
       <c r="K24">
-        <v>9.154534697252107</v>
+        <v>9.140911505961844</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.075573222648279</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.59509792068841</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.76910326234066</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.23757287033987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.78817300578595</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.06509319069103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.45472816577584</v>
+        <v>22.41053548427167</v>
       </c>
       <c r="C25">
-        <v>17.45704175829283</v>
+        <v>17.68217890015546</v>
       </c>
       <c r="D25">
-        <v>5.126350150970385</v>
+        <v>5.203529194527143</v>
       </c>
       <c r="E25">
-        <v>12.05533297622164</v>
+        <v>11.99393564741542</v>
       </c>
       <c r="F25">
-        <v>14.91669006737061</v>
+        <v>14.74708139044397</v>
       </c>
       <c r="G25">
-        <v>17.13146687019594</v>
+        <v>16.4836932281856</v>
       </c>
       <c r="I25">
-        <v>3.674590461934112</v>
+        <v>3.619613295275783</v>
       </c>
       <c r="J25">
-        <v>7.041105295121509</v>
+        <v>7.707204931633075</v>
       </c>
       <c r="K25">
-        <v>9.684977230534846</v>
+        <v>9.677733686646947</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.454729416079493</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.857688125906068</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.7993541611853</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.06698805893893</v>
+        <v>19.8121789105378</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.98572712989741</v>
       </c>
     </row>
   </sheetData>
